--- a/src/assets/newFormatDialogs.xlsx
+++ b/src/assets/newFormatDialogs.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="460" windowWidth="24040" windowHeight="14840" tabRatio="610" activeTab="2"/>
+    <workbookView xWindow="6520" yWindow="3020" windowWidth="24040" windowHeight="14840" tabRatio="610" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="template_positive_set1" sheetId="29" r:id="rId1"/>
-    <sheet name="template_positive_set3" sheetId="30" r:id="rId2"/>
-    <sheet name="template_negative_set2" sheetId="31" r:id="rId3"/>
-    <sheet name="template_template_negative_set4" sheetId="32" r:id="rId4"/>
-    <sheet name="template_negative" sheetId="26" r:id="rId5"/>
-    <sheet name="template_positive" sheetId="27" r:id="rId6"/>
+    <sheet name="template-positive-set1" sheetId="29" r:id="rId1"/>
+    <sheet name="template-positive-set3" sheetId="30" r:id="rId2"/>
+    <sheet name="template-negative-set2" sheetId="31" r:id="rId3"/>
+    <sheet name="template-template-negative-set4" sheetId="32" r:id="rId4"/>
+    <sheet name="template-negative" sheetId="26" r:id="rId5"/>
+    <sheet name="template-positive" sheetId="27" r:id="rId6"/>
     <sheet name="CC.RQ.02" sheetId="2" r:id="rId7"/>
     <sheet name="CC.TEST" sheetId="28" r:id="rId8"/>
     <sheet name="CC.RQwGr.02" sheetId="3" r:id="rId9"/>
     <sheet name="CC.ST.02" sheetId="4" r:id="rId10"/>
     <sheet name="CC.STwGr.01" sheetId="5" r:id="rId11"/>
     <sheet name="FF.GR.02" sheetId="6" r:id="rId12"/>
-    <sheet name="FF.Gr.01" sheetId="7" r:id="rId13"/>
+    <sheet name="FF.GR.01" sheetId="7" r:id="rId13"/>
     <sheet name="FF.Linear" sheetId="8" r:id="rId14"/>
     <sheet name="FF.Linear.positive" sheetId="9" r:id="rId15"/>
     <sheet name="FF.RQ.01" sheetId="10" r:id="rId16"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="1715">
   <si>
     <t>code</t>
   </si>
@@ -5190,6 +5190,18 @@
   </si>
   <si>
     <t xml:space="preserve">tmeplate fill postive game </t>
+  </si>
+  <si>
+    <t>fran</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>charlie</t>
+  </si>
+  <si>
+    <t>luna</t>
   </si>
 </sst>
 </file>
@@ -5785,7 +5797,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6011,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1660</v>
+        <v>1711</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>1691</v>
@@ -6028,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1665</v>
+        <v>1712</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>1684</v>
@@ -6043,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1672</v>
+        <v>1713</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1698</v>
@@ -6058,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1669</v>
+        <v>1714</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>1699</v>
@@ -7979,7 +7991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCellId="1" sqref="B1:C1048576 A1"/>
     </sheetView>
   </sheetViews>
@@ -9826,10 +9838,14 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="B1:C1048576 A1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -10936,7 +10952,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:S3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10991,7 +11007,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="9" t="s">
-        <v>1660</v>
+        <v>1711</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
@@ -11024,7 +11040,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="9" t="s">
-        <v>1665</v>
+        <v>1712</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
@@ -11050,7 +11066,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="9" t="s">
-        <v>1669</v>
+        <v>1714</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
@@ -11074,7 +11090,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>1672</v>
+        <v>1713</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
@@ -11167,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1660</v>
+        <v>1711</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>1691</v>
@@ -11184,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1665</v>
+        <v>1712</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>1684</v>
@@ -11199,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1672</v>
+        <v>1713</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1698</v>
@@ -16101,8 +16117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A11:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16157,7 +16173,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="9" t="s">
-        <v>1660</v>
+        <v>1711</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
@@ -16185,7 +16201,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="9" t="s">
-        <v>1665</v>
+        <v>1712</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
@@ -16211,7 +16227,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="9" t="s">
-        <v>1669</v>
+        <v>1714</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
@@ -16235,7 +16251,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>1672</v>
+        <v>1713</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
@@ -16335,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1665</v>
+        <v>1712</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>1684</v>
@@ -16350,7 +16366,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1672</v>
+        <v>1713</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1698</v>
@@ -16365,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1669</v>
+        <v>1714</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>1699</v>
@@ -17723,7 +17739,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17805,8 +17821,8 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="9" t="s">
-        <v>1665</v>
+      <c r="F4" s="18" t="s">
+        <v>1712</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
@@ -17831,8 +17847,8 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
-        <v>1669</v>
+      <c r="F5" s="18" t="s">
+        <v>1713</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
@@ -17855,8 +17871,8 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="9" t="s">
-        <v>1672</v>
+      <c r="F6" s="18" t="s">
+        <v>1714</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
@@ -17949,7 +17965,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1660</v>
+        <v>1711</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>1691</v>
@@ -17966,7 +17982,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1665</v>
+        <v>1712</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>1684</v>
@@ -17981,7 +17997,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1672</v>
+        <v>1713</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1698</v>
@@ -17996,7 +18012,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1669</v>
+        <v>1714</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>1699</v>
@@ -18216,7 +18232,7 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B40:B43 B17:B21 B23:B27 B29:B33 B35:B38 B11:B15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B40:B43 B17:B21 B23:B27 B29:B33 B35:B38 F4:F6 B11:B15">
       <formula1>$F$3:$F$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -18927,7 +18943,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/assets/newFormatDialogs.xlsx
+++ b/src/assets/newFormatDialogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26920" windowHeight="15220" tabRatio="610"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26920" windowHeight="15220" tabRatio="610" firstSheet="17" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="template-positive-set1" sheetId="1" r:id="rId1"/>
@@ -5691,12 +5691,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5707,6 +5701,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6060,7 +6060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6069,15 +6069,15 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6306,7 +6306,7 @@
       <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>1720</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -13138,7 +13138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14024,7 +14024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14915,15 +14915,15 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -15157,7 +15157,7 @@
       <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>1720</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -23785,15 +23785,15 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -23999,10 +23999,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
+      <c r="A11" s="48">
         <v>1</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="16"/>
@@ -24016,7 +24016,7 @@
       <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>1720</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -25172,7 +25172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -26057,7 +26057,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26065,15 +26065,15 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -26302,8 +26302,8 @@
       <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>46</v>
+      <c r="C12" s="46" t="s">
+        <v>1720</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>18</v>
@@ -26568,8 +26568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26577,15 +26577,15 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -26875,7 +26875,7 @@
       <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="49" t="s">
         <v>1720</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -27247,7 +27247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -27256,15 +27256,15 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -27493,7 +27493,7 @@
       <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>1721</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -27927,7 +27927,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27955,10 +27955,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -28979,7 +28979,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29024,10 +29024,10 @@
       <c r="A4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>78</v>
       </c>
     </row>
